--- a/analysis/post_gemini_data/participant270/hard.xlsx
+++ b/analysis/post_gemini_data/participant270/hard.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AL9"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,423 +422,315 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr"/>
+      <c r="B1" t="inlineStr">
         <is>
           <t>arg</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>arg2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>arg3</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>arg4</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>assign</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>assign2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>cond_body</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>cond_body2</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>cond_body3</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>cond_state</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>cond_state2</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" t="inlineStr">
         <is>
           <t>cond_state3</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" t="inlineStr">
         <is>
           <t>declaration</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" t="inlineStr">
         <is>
           <t>gemini</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" t="inlineStr">
         <is>
           <t>index</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="R1" t="inlineStr">
         <is>
           <t>index2</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="S1" t="inlineStr">
         <is>
           <t>literal</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>literal2</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>literal3</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>loop_body</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>loop_body2</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>loop_body3</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>method2</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AA1" t="inlineStr">
         <is>
           <t>method3</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AB1" t="inlineStr">
         <is>
           <t>method4</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AC1" t="inlineStr">
         <is>
           <t>method5</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AD1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AE1" t="inlineStr">
         <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AF1" t="inlineStr">
         <is>
           <t>var</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AG1" t="inlineStr">
         <is>
           <t>var2</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AH1" t="inlineStr">
         <is>
           <t>var3</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AI1" t="inlineStr">
         <is>
           <t>var4</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AJ1" t="inlineStr">
         <is>
           <t>var5</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AK1" t="inlineStr">
         <is>
           <t>var6</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AL1" t="inlineStr">
         <is>
           <t>var7</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>arg</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>arg2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>arg3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>arg4</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>assign</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>assign2</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>cond_body</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>cond_body2</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>cond_body3</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>cond_state</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>cond_state2</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>cond_state3</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>gemini</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>index2</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>literal</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>literal2</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>literal3</t>
-        </is>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>loop_body</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>loop_body2</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>loop_body3</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>method</t>
-        </is>
-      </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>method2</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>method3</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>method4</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>method5</t>
-        </is>
-      </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>param</t>
-        </is>
-      </c>
-      <c r="AE2" t="inlineStr">
-        <is>
-          <t>sum</t>
-        </is>
-      </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
-      <c r="AG2" t="inlineStr">
-        <is>
-          <t>var2</t>
-        </is>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>var3</t>
-        </is>
-      </c>
-      <c r="AI2" t="inlineStr">
-        <is>
-          <t>var4</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>var5</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>var6</t>
-        </is>
-      </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>var7</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Fixation based metrics</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Fixation based metrics</t>
+          <t>Revisit count</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
+      <c r="V3" t="n">
+        <v>8</v>
+      </c>
+      <c r="W3" t="n">
+        <v>8</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6</v>
+      </c>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
       <c r="AB3" t="inlineStr"/>
       <c r="AC3" t="inlineStr"/>
       <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>24</v>
+      </c>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
       <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
       <c r="AJ3" t="inlineStr"/>
@@ -860,650 +740,422 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Revisit count</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
+          <t>Fixation count</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I4" t="n">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="J4" t="n">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>45</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="N4" t="n">
-        <v>41</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
       <c r="P4" t="n">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="Q4" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="R4" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
-        <v>11</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="W4" t="n">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="X4" t="n">
-        <v>54</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="n">
-        <v>53</v>
-      </c>
-      <c r="AF4" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="n">
         <v>1</v>
       </c>
-      <c r="AG4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="n">
-        <v>10</v>
-      </c>
+      <c r="AL4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fixation count</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
+          <t>Dwell time (ms)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>450.36</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>22</v>
+        <v>150.13</v>
       </c>
       <c r="G5" t="n">
-        <v>34</v>
+        <v>600.99</v>
       </c>
       <c r="H5" t="n">
-        <v>248</v>
+        <v>8967.059999999999</v>
       </c>
       <c r="I5" t="n">
-        <v>219</v>
+        <v>4011.86</v>
       </c>
       <c r="J5" t="n">
-        <v>156</v>
+        <v>3511.41</v>
       </c>
       <c r="K5" t="n">
-        <v>107</v>
-      </c>
-      <c r="L5" t="n">
-        <v>17</v>
-      </c>
+        <v>1301.29</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>45</v>
+        <v>1659.49</v>
       </c>
       <c r="N5" t="n">
-        <v>72</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
+        <v>1117.92</v>
+      </c>
+      <c r="O5" t="n">
+        <v>850.91</v>
+      </c>
       <c r="P5" t="n">
-        <v>215</v>
+        <v>53951.84</v>
       </c>
       <c r="Q5" t="n">
-        <v>16</v>
+        <v>334.03</v>
       </c>
       <c r="R5" t="n">
-        <v>30</v>
+        <v>266.97</v>
       </c>
       <c r="S5" t="n">
-        <v>14</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
+        <v>450.36</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>243</v>
+        <v>7448.77</v>
       </c>
       <c r="W5" t="n">
-        <v>238</v>
+        <v>4162</v>
       </c>
       <c r="X5" t="n">
-        <v>187</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>4</v>
-      </c>
+        <v>3761.72</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1</v>
-      </c>
+        <v>334.03</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
-        <v>220</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>3</v>
-      </c>
+        <v>38915.63</v>
+      </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1</v>
-      </c>
+        <v>150.13</v>
+      </c>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="n">
-        <v>12</v>
-      </c>
+      <c r="AL5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dwell time (ms)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2594.63</v>
-      </c>
-      <c r="C6" t="n">
-        <v>183.51</v>
-      </c>
+          <t>Dwell time (%)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>5672.69</v>
+        <v>0.28</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>9001.870000000001</v>
+        <v>0.09</v>
       </c>
       <c r="G6" t="n">
-        <v>11653.9</v>
+        <v>0.37</v>
       </c>
       <c r="H6" t="n">
-        <v>74744.07000000001</v>
+        <v>5.49</v>
       </c>
       <c r="I6" t="n">
-        <v>65871.62</v>
+        <v>2.46</v>
       </c>
       <c r="J6" t="n">
-        <v>49595.5</v>
+        <v>2.15</v>
       </c>
       <c r="K6" t="n">
-        <v>35136.06</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5623.05</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>17802.68</v>
+        <v>1.02</v>
       </c>
       <c r="N6" t="n">
-        <v>26418.36</v>
-      </c>
-      <c r="O6" t="inlineStr"/>
+        <v>0.68</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.52</v>
+      </c>
       <c r="P6" t="n">
-        <v>53951.84</v>
+        <v>33.03</v>
       </c>
       <c r="Q6" t="n">
-        <v>8258.809999999999</v>
+        <v>0.2</v>
       </c>
       <c r="R6" t="n">
-        <v>10744.86</v>
+        <v>0.16</v>
       </c>
       <c r="S6" t="n">
-        <v>4571.62</v>
-      </c>
-      <c r="T6" t="n">
-        <v>183.51</v>
-      </c>
+        <v>0.28</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>72992.35000000001</v>
+        <v>4.56</v>
       </c>
       <c r="W6" t="n">
-        <v>72208.33</v>
+        <v>2.55</v>
       </c>
       <c r="X6" t="n">
-        <v>59106.17</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>825.91</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>2151.98</v>
-      </c>
+        <v>2.3</v>
+      </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
-        <v>11835.9</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>900.73</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>183.5</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="n">
-        <v>90194.37</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1409.94</v>
-      </c>
+        <v>23.83</v>
+      </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>4204.46</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>825.91</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1510.03</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>825.91</v>
-      </c>
+        <v>0.09</v>
+      </c>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="n">
-        <v>5723.92</v>
-      </c>
+      <c r="AL6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dwell time (%)</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07000000000000001</v>
-      </c>
+          <t>Fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>2.19</v>
+        <v>450.36</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
-        <v>3.48</v>
+        <v>150.13</v>
       </c>
       <c r="G7" t="n">
-        <v>4.51</v>
+        <v>300.5</v>
       </c>
       <c r="H7" t="n">
-        <v>28.91</v>
+        <v>358.68</v>
       </c>
       <c r="I7" t="n">
-        <v>25.48</v>
+        <v>222.88</v>
       </c>
       <c r="J7" t="n">
-        <v>19.18</v>
+        <v>234.09</v>
       </c>
       <c r="K7" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.17</v>
-      </c>
+        <v>260.26</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>6.89</v>
+        <v>237.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="O7" t="inlineStr"/>
+        <v>279.48</v>
+      </c>
+      <c r="O7" t="n">
+        <v>425.45</v>
+      </c>
       <c r="P7" t="n">
-        <v>33.03</v>
+        <v>250.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.19</v>
+        <v>334.03</v>
       </c>
       <c r="R7" t="n">
-        <v>4.16</v>
+        <v>266.97</v>
       </c>
       <c r="S7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0.07000000000000001</v>
-      </c>
+        <v>450.36</v>
+      </c>
+      <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>28.23</v>
+        <v>372.44</v>
       </c>
       <c r="W7" t="n">
-        <v>27.93</v>
+        <v>219.05</v>
       </c>
       <c r="X7" t="n">
-        <v>22.86</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>0.83</v>
-      </c>
+        <v>235.11</v>
+      </c>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
-        <v>4.58</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>0.07000000000000001</v>
-      </c>
+        <v>334.03</v>
+      </c>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
-        <v>34.88</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0.55</v>
-      </c>
+        <v>457.83</v>
+      </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0.32</v>
-      </c>
+        <v>150.13</v>
+      </c>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="n">
-        <v>2.21</v>
-      </c>
+      <c r="AL7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fixation duration (ms)</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>518.9299999999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>183.51</v>
-      </c>
+          <t>First fixation duration (ms)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>315.15</v>
+        <v>450.36</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>409.18</v>
+        <v>150.13</v>
       </c>
       <c r="G8" t="n">
-        <v>342.76</v>
+        <v>266.97</v>
       </c>
       <c r="H8" t="n">
-        <v>301.39</v>
+        <v>3286.77</v>
       </c>
       <c r="I8" t="n">
-        <v>300.78</v>
+        <v>216.86</v>
       </c>
       <c r="J8" t="n">
-        <v>317.92</v>
+        <v>216.86</v>
       </c>
       <c r="K8" t="n">
-        <v>328.37</v>
-      </c>
-      <c r="L8" t="n">
-        <v>330.77</v>
-      </c>
+        <v>183.54</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>395.62</v>
+        <v>216.86</v>
       </c>
       <c r="N8" t="n">
-        <v>366.92</v>
-      </c>
-      <c r="O8" t="inlineStr"/>
+        <v>183.54</v>
+      </c>
+      <c r="O8" t="n">
+        <v>250.31</v>
+      </c>
       <c r="P8" t="n">
-        <v>250.94</v>
+        <v>200.19</v>
       </c>
       <c r="Q8" t="n">
-        <v>516.1799999999999</v>
+        <v>334.03</v>
       </c>
       <c r="R8" t="n">
-        <v>358.16</v>
+        <v>266.97</v>
       </c>
       <c r="S8" t="n">
-        <v>326.54</v>
-      </c>
-      <c r="T8" t="n">
-        <v>183.51</v>
-      </c>
+        <v>450.36</v>
+      </c>
+      <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="n">
-        <v>300.38</v>
+        <v>3286.77</v>
       </c>
       <c r="W8" t="n">
-        <v>303.4</v>
+        <v>150.13</v>
       </c>
       <c r="X8" t="n">
-        <v>316.08</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>825.91</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>537.99</v>
-      </c>
+        <v>216.86</v>
+      </c>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
-        <v>438.37</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>900.73</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>183.5</v>
-      </c>
+        <v>334.03</v>
+      </c>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="n">
-        <v>409.97</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>469.98</v>
-      </c>
+        <v>183.55</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="n">
-        <v>467.16</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>825.91</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>503.34</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>825.91</v>
-      </c>
+        <v>150.13</v>
+      </c>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="n">
-        <v>476.99</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>First fixation duration (ms)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>825.91</v>
-      </c>
-      <c r="C9" t="n">
-        <v>183.51</v>
-      </c>
-      <c r="D9" t="n">
-        <v>250.25</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>300.31</v>
-      </c>
-      <c r="G9" t="n">
-        <v>717.4299999999999</v>
-      </c>
-      <c r="H9" t="n">
-        <v>66.69</v>
-      </c>
-      <c r="I9" t="n">
-        <v>66.69</v>
-      </c>
-      <c r="J9" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>467.14</v>
-      </c>
-      <c r="L9" t="n">
-        <v>100.09</v>
-      </c>
-      <c r="M9" t="n">
-        <v>367.1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>467.14</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="n">
-        <v>200.19</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>467.14</v>
-      </c>
-      <c r="R9" t="n">
-        <v>717.4299999999999</v>
-      </c>
-      <c r="S9" t="n">
-        <v>250.25</v>
-      </c>
-      <c r="T9" t="n">
-        <v>183.51</v>
-      </c>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="n">
-        <v>66.69</v>
-      </c>
-      <c r="W9" t="n">
-        <v>66.69</v>
-      </c>
-      <c r="X9" t="n">
-        <v>366.95</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>825.91</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>450.3</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>467.14</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>900.73</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>183.5</v>
-      </c>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="n">
-        <v>66.76000000000001</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>842.71</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>300.31</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>825.91</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>842.71</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>825.91</v>
-      </c>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="n">
-        <v>233.62</v>
-      </c>
+      <c r="AL8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
